--- a/static/uploads/test.xlsx
+++ b/static/uploads/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Althea\OneDrive\Documents\GitHub\SMTP-Bulkmail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Althea\OneDrive\Documents\GitHub\SMTP-Bulkmail\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AB7B1B3-B4FC-49E4-98D5-E4A177BCD2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB84F91-39B3-43C8-90D2-EB37C3221343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42F08022-B0AC-424B-9252-7FE81A8D6A3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">	"Student Number"</t>
   </si>
@@ -66,16 +66,39 @@
   </si>
   <si>
     <t>allenalcorano@gmail.com</t>
+  </si>
+  <si>
+    <t>setsetvillanueva@gmail.com</t>
+  </si>
+  <si>
+    <t>SETRIC</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>DSDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,14 +121,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,64 +463,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E26029-68DA-4E0E-B55B-A94B5F0558CF}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{4C3BB519-1E49-48F1-9C30-1281F669D1E4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>